--- a/code/h2_data_right_eig.xlsx
+++ b/code/h2_data_right_eig.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -205,46 +247,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
